--- a/data/curriculum.xlsx
+++ b/data/curriculum.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="1. Sınıf" sheetId="1" r:id="rId1"/>
-    <sheet name="2. Sınıf" sheetId="2" r:id="rId2"/>
-    <sheet name="3. Sınıf" sheetId="3" r:id="rId3"/>
-    <sheet name="4. Sınıf" sheetId="4" r:id="rId4"/>
+    <sheet name="Sınıf 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sınıf 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sınıf 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sınıf 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>Pazartesi</t>
   </si>
@@ -34,140 +34,143 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>9:00-10:00</t>
-  </si>
-  <si>
-    <t>10:00-11:00</t>
-  </si>
-  <si>
-    <t>11:00-12:00</t>
-  </si>
-  <si>
-    <t>12:00-13:00</t>
-  </si>
-  <si>
-    <t>13:00-14:00</t>
-  </si>
-  <si>
-    <t>14:00-15:00</t>
-  </si>
-  <si>
-    <t>15:00-16:00</t>
-  </si>
-  <si>
-    <t>16:00-17:00</t>
-  </si>
-  <si>
-    <t>ATA1031
-ZOOM
-Zafer Doğan</t>
-  </si>
-  <si>
-    <t>TDB1031
-ZOOM
-Hilal Tufan</t>
-  </si>
-  <si>
-    <t>MAT1320
-D109
-Pınar Albayrak</t>
-  </si>
-  <si>
-    <t>BLM1011
-D109
-Göksel Biricik</t>
-  </si>
-  <si>
-    <t>MAT1071
-D109
-Pınar Albayrak</t>
-  </si>
-  <si>
-    <t>FIZ1001
-ZOOM
-Çiğdem ORUÇ</t>
-  </si>
-  <si>
-    <t>BLM2611
-D110
-Gökhan Bilgin</t>
-  </si>
-  <si>
-    <t>BLM2011
-D109
-Oğuz Altun</t>
-  </si>
-  <si>
-    <t>BLM2521
-D109
-Ahmet Elbir</t>
-  </si>
-  <si>
-    <t>BLM2012
-D110
-Furkan Çakmak</t>
-  </si>
-  <si>
-    <t>BLM2642
-D109
-M.Fatih Amasyalı</t>
-  </si>
-  <si>
-    <t>BLM3061
-D110
-Furkan Çakmak</t>
-  </si>
-  <si>
-    <t>BLM3021
-D110
-M.Amaç Güvensan</t>
-  </si>
-  <si>
-    <t>BLM3041
-D109
-Utku Kalaycı</t>
-  </si>
-  <si>
-    <t>BLM3042
-D109
-Göksel Biricik</t>
-  </si>
-  <si>
-    <t>BLM4011
-D109
-A.Gökhan Yavuz</t>
-  </si>
-  <si>
-    <t>BLM4710
-D109
-Oya Kalıpsız</t>
-  </si>
-  <si>
-    <t>BLM3730
-D110
-Oğuz Altun</t>
-  </si>
-  <si>
-    <t>BLM4770
-D109
-Oya Kalıpsız</t>
-  </si>
-  <si>
-    <t>BLM3780
-D110
-Utku Kalaycı</t>
-  </si>
-  <si>
-    <t>BLM4021
-D109
-Alican Karaca</t>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>ATA1031 Atatürk İlkeleri İnk. Tar -  ZOOM - Zafer Doğan</t>
+  </si>
+  <si>
+    <t>MAT1320 Lineer Cebir - D109</t>
+  </si>
+  <si>
+    <t>Pınar Albayrak</t>
+  </si>
+  <si>
+    <t>TDB1031 Türkçe 1 -  ZOOM - Hilal Tufan</t>
+  </si>
+  <si>
+    <t>BLM1011 Bilgisayar Bilimlerine Gir. - D109</t>
+  </si>
+  <si>
+    <t>Göksel Biricik</t>
+  </si>
+  <si>
+    <t>MAT1071 Matematik 1</t>
+  </si>
+  <si>
+    <t>D109</t>
+  </si>
+  <si>
+    <t>FIZ1001 Fizik 1 - ZOOM</t>
+  </si>
+  <si>
+    <t>Çiğdem ORUÇ</t>
+  </si>
+  <si>
+    <t>BLM2011 İst. ve Olasılık Hes. - D109</t>
+  </si>
+  <si>
+    <t>Oğuz Altun</t>
+  </si>
+  <si>
+    <t>BLM2611 Lojik Devreler</t>
+  </si>
+  <si>
+    <t>Gökhan Bilgin</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>BLM2012 Nesneye Yönelik Prog.</t>
+  </si>
+  <si>
+    <t>Furkan Çakmak</t>
+  </si>
+  <si>
+    <t>BLM2521 Ayrık Matematik - D109</t>
+  </si>
+  <si>
+    <t>Ahmet Elbir</t>
+  </si>
+  <si>
+    <t>BLM2642 Bilg. Müh. İçin Diff. Denk. - D109</t>
+  </si>
+  <si>
+    <t>M.Fatih Amasyalı</t>
+  </si>
+  <si>
+    <t>BLM3041 Veritabanı Yönetimi  - D109</t>
+  </si>
+  <si>
+    <t>Utku Kalaycı</t>
+  </si>
+  <si>
+    <t>BLM3042 Seminer ve Meslek Etiği - D109</t>
+  </si>
+  <si>
+    <t>BLM3061 Mikroişl. Sist. ve Assmb</t>
+  </si>
+  <si>
+    <t>BLM3021 Algoritma Analizi</t>
+  </si>
+  <si>
+    <t>M.Amaç Güvensan</t>
+  </si>
+  <si>
+    <t>BLM3730 Blokzincir Temelleri - D109</t>
+  </si>
+  <si>
+    <t>BLM4011 Bilişim Sis. Güvenliği</t>
+  </si>
+  <si>
+    <t>A.Gökhan Yavuz</t>
+  </si>
+  <si>
+    <t>BLM3780 Ver. Tab. Sis. Gerç.</t>
+  </si>
+  <si>
+    <t>BLM4021 Gömülü Sistemler</t>
+  </si>
+  <si>
+    <t>Alican Karaca</t>
+  </si>
+  <si>
+    <t>BLM4710 Yönetim Bilgi Sis.</t>
+  </si>
+  <si>
+    <t>Oya Kalıpsız</t>
+  </si>
+  <si>
+    <t>BLM4770 Yaz.Kal.Test.Sür.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,21 +178,139 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9AA2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3E5FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5D387"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98F6DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5CAE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CA8F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE775"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80CBC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4B65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1C4E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2DFDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA69079"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB7B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2EBF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8E6C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D4FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE0B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCEDC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF9C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -219,13 +340,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,83 +704,95 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="6" width="20.7109375" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -617,80 +807,98 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="6" width="20.7109375" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -705,77 +913,92 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="6" width="20.7109375" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -790,82 +1013,112 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="6" width="20.7109375" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
+      <c r="B2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
+      <c r="B4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
+      <c r="B5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
+      <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
+      <c r="F7" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
